--- a/docentes/Polanco Domínguez Rosa María - Estadisticos 20211.xlsx
+++ b/docentes/Polanco Domínguez Rosa María - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="209">
   <si>
     <t>Mat</t>
   </si>
@@ -80,6 +80,570 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>ARIZMENDI</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>ARIAS</t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>CONTRERAS</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>MANZANET</t>
+  </si>
+  <si>
+    <t>TZANAHUA</t>
+  </si>
+  <si>
+    <t>BRISEÑO</t>
+  </si>
+  <si>
+    <t>CALIHUA</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>MAZAHUA</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>RIOS</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>ROSAS</t>
+  </si>
+  <si>
+    <t>TREJO</t>
+  </si>
+  <si>
+    <t>COSCAHUA</t>
+  </si>
+  <si>
+    <t>GUTIERREZ</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>ALCANTARA</t>
+  </si>
+  <si>
+    <t>ALTAMIRANO</t>
+  </si>
+  <si>
+    <t>AJACTLE</t>
+  </si>
+  <si>
+    <t>LAZARO</t>
+  </si>
+  <si>
+    <t>MARQUEZ</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>SALAZAR</t>
+  </si>
+  <si>
+    <t>SOLANO</t>
+  </si>
+  <si>
+    <t>SUAREZ</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>XALAMIHUA</t>
+  </si>
+  <si>
+    <t>APALE</t>
+  </si>
+  <si>
+    <t>CARDENAS</t>
+  </si>
+  <si>
+    <t>CERVANTES</t>
+  </si>
+  <si>
+    <t>GALVEZ</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>MONTIEL</t>
+  </si>
+  <si>
+    <t>PATIÑO</t>
+  </si>
+  <si>
+    <t>TRUJILLO</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>CISNEROS</t>
+  </si>
+  <si>
+    <t>CORDOVA</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>ROMAN</t>
+  </si>
+  <si>
+    <t>NUÑEZ</t>
+  </si>
+  <si>
+    <t>VALIENTE</t>
+  </si>
+  <si>
+    <t>DE LOS SANTOS</t>
+  </si>
+  <si>
+    <t>PACHECO</t>
+  </si>
+  <si>
+    <t>BARRAGAN</t>
+  </si>
+  <si>
+    <t>SEGURA</t>
+  </si>
+  <si>
+    <t>MARROQUIN</t>
+  </si>
+  <si>
+    <t>LINARES</t>
+  </si>
+  <si>
+    <t>ROQUE</t>
+  </si>
+  <si>
+    <t>ANDRADE</t>
+  </si>
+  <si>
+    <t>GUEVARA</t>
+  </si>
+  <si>
+    <t>AULIS</t>
+  </si>
+  <si>
+    <t>SUSUNAGA</t>
+  </si>
+  <si>
+    <t>MENDEZ</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>AGUILA</t>
+  </si>
+  <si>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
+    <t>CORDOBA</t>
+  </si>
+  <si>
+    <t>TZITZIHUA</t>
+  </si>
+  <si>
+    <t>ORTIZ</t>
+  </si>
+  <si>
+    <t>VOTTE</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>SERRANO</t>
+  </si>
+  <si>
+    <t>CUAHUA</t>
+  </si>
+  <si>
+    <t>DOMINGUEZ</t>
+  </si>
+  <si>
+    <t>GALEOTE</t>
+  </si>
+  <si>
+    <t>LUENGAS</t>
+  </si>
+  <si>
+    <t>TZOYONTLE</t>
+  </si>
+  <si>
+    <t>PAZ</t>
+  </si>
+  <si>
+    <t>CORTES</t>
+  </si>
+  <si>
+    <t>OLMOS</t>
+  </si>
+  <si>
+    <t>OFICIAL</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>VARGAS</t>
+  </si>
+  <si>
+    <t>SANTOS</t>
+  </si>
+  <si>
+    <t>TEZOCO</t>
+  </si>
+  <si>
+    <t>FERRAL</t>
+  </si>
+  <si>
+    <t>DE LA LUZ</t>
+  </si>
+  <si>
+    <t>ZOPIYACTLE</t>
+  </si>
+  <si>
+    <t>ZEPAHUA</t>
+  </si>
+  <si>
+    <t>AMADOR</t>
+  </si>
+  <si>
+    <t>GALLARDO</t>
+  </si>
+  <si>
+    <t>TZOPITL</t>
+  </si>
+  <si>
+    <t>SANTIAGO</t>
+  </si>
+  <si>
+    <t>BAEZ</t>
+  </si>
+  <si>
+    <t>PALMA</t>
+  </si>
+  <si>
+    <t>GUIZA</t>
+  </si>
+  <si>
+    <t>TZOMPAXTLE</t>
+  </si>
+  <si>
+    <t>CASTELLANOS</t>
+  </si>
+  <si>
+    <t>BONILLA</t>
+  </si>
+  <si>
+    <t>JUAREZ</t>
+  </si>
+  <si>
+    <t>KARLA IRAN</t>
+  </si>
+  <si>
+    <t>LUIS ARIEL</t>
+  </si>
+  <si>
+    <t>GERARDO RAUL</t>
+  </si>
+  <si>
+    <t>MARTIN</t>
+  </si>
+  <si>
+    <t>EMMANUEL</t>
+  </si>
+  <si>
+    <t>MONSERRAT</t>
+  </si>
+  <si>
+    <t>ESDRAS ALAN</t>
+  </si>
+  <si>
+    <t>BRENDA JANET</t>
+  </si>
+  <si>
+    <t>EDITH</t>
+  </si>
+  <si>
+    <t>ANDRES</t>
+  </si>
+  <si>
+    <t>CONCEPCION</t>
+  </si>
+  <si>
+    <t>JADE EMILY</t>
+  </si>
+  <si>
+    <t>LAISHA STEFANY</t>
+  </si>
+  <si>
+    <t>ALDO</t>
+  </si>
+  <si>
+    <t>VANESSA</t>
+  </si>
+  <si>
+    <t>JOEL</t>
+  </si>
+  <si>
+    <t>DANIELA</t>
+  </si>
+  <si>
+    <t>OFELIA</t>
+  </si>
+  <si>
+    <t>HILARIO</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>GISELA</t>
+  </si>
+  <si>
+    <t>JESUS</t>
+  </si>
+  <si>
+    <t>DARIANA MONSERRAT</t>
+  </si>
+  <si>
+    <t>MARIAM ABRIL</t>
+  </si>
+  <si>
+    <t>LUCERO</t>
+  </si>
+  <si>
+    <t>FRANCISCO JAVIER</t>
+  </si>
+  <si>
+    <t>NOE</t>
+  </si>
+  <si>
+    <t>MERIELING YAMILETH</t>
+  </si>
+  <si>
+    <t>SAIRA YAMILET</t>
+  </si>
+  <si>
+    <t>ELIZABETH</t>
+  </si>
+  <si>
+    <t>CRISTIAN</t>
+  </si>
+  <si>
+    <t>ERICA</t>
+  </si>
+  <si>
+    <t>JAVIER FERNANDO</t>
+  </si>
+  <si>
+    <t>ALEXIS</t>
+  </si>
+  <si>
+    <t>JELIN JANET</t>
+  </si>
+  <si>
+    <t>ALMA LIZETH</t>
+  </si>
+  <si>
+    <t>JONATHAN</t>
+  </si>
+  <si>
+    <t>ISAAC ALESSANDRO</t>
+  </si>
+  <si>
+    <t>AGUSTIN</t>
+  </si>
+  <si>
+    <t>IVAN</t>
+  </si>
+  <si>
+    <t>ARTURO</t>
+  </si>
+  <si>
+    <t>BITHIA MARIAN</t>
+  </si>
+  <si>
+    <t>IRIDIA</t>
+  </si>
+  <si>
+    <t>ELISA</t>
+  </si>
+  <si>
+    <t>JHOVANA</t>
+  </si>
+  <si>
+    <t>AZAEL</t>
+  </si>
+  <si>
+    <t>FELIPE</t>
+  </si>
+  <si>
+    <t>ANGEL ALEXIS</t>
+  </si>
+  <si>
+    <t>ANGEL JARET</t>
+  </si>
+  <si>
+    <t>ALLISSON NICOLE</t>
+  </si>
+  <si>
+    <t>KARLA</t>
+  </si>
+  <si>
+    <t>ROSA JATZIRI</t>
+  </si>
+  <si>
+    <t>JOHANA</t>
+  </si>
+  <si>
+    <t>VALERIA GUADALUPE</t>
+  </si>
+  <si>
+    <t>ESMERALDA</t>
+  </si>
+  <si>
+    <t>CECILIA ARLETH</t>
+  </si>
+  <si>
+    <t>ASHLEY ZURELY</t>
+  </si>
+  <si>
+    <t>ORIEL</t>
+  </si>
+  <si>
+    <t>ISRAEL</t>
+  </si>
+  <si>
+    <t>KEVIN HONAM</t>
+  </si>
+  <si>
+    <t>GIOVANNI</t>
+  </si>
+  <si>
+    <t>ADRIAN</t>
+  </si>
+  <si>
+    <t>ARELY</t>
+  </si>
+  <si>
+    <t>IGNACIO</t>
+  </si>
+  <si>
+    <t>DIEGO</t>
+  </si>
+  <si>
+    <t>VICTOR YAHIR</t>
+  </si>
+  <si>
+    <t>CRISTOPHER ENRIQUE</t>
+  </si>
+  <si>
+    <t>CARLOS FERNANDO</t>
+  </si>
+  <si>
+    <t>CIELO IVETTE</t>
+  </si>
+  <si>
+    <t>GWINETH</t>
+  </si>
+  <si>
+    <t>YOSEF OMAR</t>
+  </si>
+  <si>
+    <t>ABIGAIL</t>
+  </si>
+  <si>
+    <t>EDGAR</t>
+  </si>
+  <si>
+    <t>BRANDON AXEL</t>
+  </si>
+  <si>
+    <t>GABRIEL MARTIN</t>
+  </si>
+  <si>
+    <t>ANGELA ALESSANDRA</t>
+  </si>
+  <si>
+    <t>ZAYRA JOSELIN</t>
+  </si>
+  <si>
+    <t>WENDY</t>
+  </si>
+  <si>
+    <t>CESAR</t>
+  </si>
+  <si>
+    <t>ALFREDO</t>
+  </si>
+  <si>
+    <t>EDUARDO ULISES</t>
+  </si>
+  <si>
+    <t>CESAR JOVANI</t>
+  </si>
+  <si>
+    <t>KARLA DENISSE</t>
   </si>
 </sst>
 </file>
@@ -483,16 +1047,19 @@
         <v>23</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>13.04</v>
+      </c>
+      <c r="H2">
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -506,16 +1073,19 @@
         <v>31</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>9.68</v>
+      </c>
+      <c r="H3">
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -529,16 +1099,19 @@
         <v>38</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>15.79</v>
+      </c>
+      <c r="H4">
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -552,16 +1125,19 @@
         <v>37</v>
       </c>
       <c r="D5">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>10.81</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -575,16 +1151,19 @@
         <v>33</v>
       </c>
       <c r="D6">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>9.09</v>
+      </c>
+      <c r="H6">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -643,7 +1222,7 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -666,7 +1245,7 @@
         <v>31</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -689,7 +1268,7 @@
         <v>38</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -712,7 +1291,7 @@
         <v>37</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -735,7 +1314,7 @@
         <v>33</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -797,16 +1376,19 @@
         <v>23</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>13.04</v>
+      </c>
+      <c r="H2">
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -820,16 +1402,19 @@
         <v>31</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>9.68</v>
+      </c>
+      <c r="H3">
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -843,16 +1428,19 @@
         <v>38</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>15.79</v>
+      </c>
+      <c r="H4">
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -866,16 +1454,19 @@
         <v>37</v>
       </c>
       <c r="D5">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>10.81</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -889,16 +1480,19 @@
         <v>33</v>
       </c>
       <c r="D6">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>9.09</v>
+      </c>
+      <c r="H6">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -908,7 +1502,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -941,6 +1535,1984 @@
         <v>20</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>19330051920042</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>19330051920049</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>19330051920055</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>19330051920056</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>19330051920068</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>19330051920081</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>19330051920273</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>19330051920268</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>18330051920242</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>19330051920278</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>19330051920284</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>19330051920286</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>19330051920301</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>19330051920319</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>19330051920456</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>19330051920362</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>141</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>19330051920365</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>19330051920368</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>18330051920097</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" t="s">
+        <v>144</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>19330051920372</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" t="s">
+        <v>145</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>19330051920373</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>19330051920374</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>19330051920378</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" t="s">
+        <v>148</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>19330051920381</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
+        <v>149</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>19330051920382</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" t="s">
+        <v>150</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>18330051920108</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" t="s">
+        <v>151</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>19330051920391</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" t="s">
+        <v>152</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>19330051920394</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" t="s">
+        <v>153</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>19330051920434</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" t="s">
+        <v>154</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>19330051920396</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" t="s">
+        <v>155</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>19330051920433</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" t="s">
+        <v>156</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>19330051920256</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" t="s">
+        <v>157</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>19330051920258</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>19330051920257</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" t="s">
+        <v>159</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>19330051920348</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" t="s">
+        <v>160</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>19330051920407</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>19330051920414</v>
+      </c>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" t="s">
+        <v>155</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>19330051920046</v>
+      </c>
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" t="s">
+        <v>161</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>19330051920057</v>
+      </c>
+      <c r="B40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" t="s">
+        <v>162</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>18330051920022</v>
+      </c>
+      <c r="B41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" t="s">
+        <v>163</v>
+      </c>
+      <c r="E41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>19330051920059</v>
+      </c>
+      <c r="B42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" t="s">
+        <v>164</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>19330051920074</v>
+      </c>
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" t="s">
+        <v>165</v>
+      </c>
+      <c r="E43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>19330051920075</v>
+      </c>
+      <c r="B44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" t="s">
+        <v>166</v>
+      </c>
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>19330051920270</v>
+      </c>
+      <c r="B45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" t="s">
+        <v>167</v>
+      </c>
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>19330051920272</v>
+      </c>
+      <c r="B46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" t="s">
+        <v>168</v>
+      </c>
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>19330051920269</v>
+      </c>
+      <c r="B47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" t="s">
+        <v>169</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>18330051920321</v>
+      </c>
+      <c r="B48" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48" t="s">
+        <v>170</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>19330051920449</v>
+      </c>
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" t="s">
+        <v>171</v>
+      </c>
+      <c r="E49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>19330051920279</v>
+      </c>
+      <c r="B50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" t="s">
+        <v>172</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>19330051920447</v>
+      </c>
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" t="s">
+        <v>173</v>
+      </c>
+      <c r="E51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>19330051920287</v>
+      </c>
+      <c r="B52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52" t="s">
+        <v>174</v>
+      </c>
+      <c r="E52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>19330051920343</v>
+      </c>
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" t="s">
+        <v>175</v>
+      </c>
+      <c r="E53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>19330051920292</v>
+      </c>
+      <c r="B54" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" t="s">
+        <v>36</v>
+      </c>
+      <c r="D54" t="s">
+        <v>176</v>
+      </c>
+      <c r="E54" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>19330051920293</v>
+      </c>
+      <c r="B55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" t="s">
+        <v>41</v>
+      </c>
+      <c r="D55" t="s">
+        <v>177</v>
+      </c>
+      <c r="E55" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>19330051920294</v>
+      </c>
+      <c r="B56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" t="s">
+        <v>51</v>
+      </c>
+      <c r="D56" t="s">
+        <v>178</v>
+      </c>
+      <c r="E56" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>19330051920296</v>
+      </c>
+      <c r="B57" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D57" t="s">
+        <v>179</v>
+      </c>
+      <c r="E57" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>19330051920295</v>
+      </c>
+      <c r="B58" t="s">
+        <v>43</v>
+      </c>
+      <c r="C58" t="s">
+        <v>110</v>
+      </c>
+      <c r="D58" t="s">
+        <v>180</v>
+      </c>
+      <c r="E58" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>19330051920298</v>
+      </c>
+      <c r="B59" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" t="s">
+        <v>111</v>
+      </c>
+      <c r="D59" t="s">
+        <v>179</v>
+      </c>
+      <c r="E59" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>19330051920299</v>
+      </c>
+      <c r="B60" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" t="s">
+        <v>102</v>
+      </c>
+      <c r="D60" t="s">
+        <v>181</v>
+      </c>
+      <c r="E60" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>19330051920443</v>
+      </c>
+      <c r="B61" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" t="s">
+        <v>112</v>
+      </c>
+      <c r="D61" t="s">
+        <v>182</v>
+      </c>
+      <c r="E61" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>19330051920305</v>
+      </c>
+      <c r="B62" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" t="s">
+        <v>113</v>
+      </c>
+      <c r="D62" t="s">
+        <v>183</v>
+      </c>
+      <c r="E62" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>19330051920307</v>
+      </c>
+      <c r="B63" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63" t="s">
+        <v>114</v>
+      </c>
+      <c r="D63" t="s">
+        <v>184</v>
+      </c>
+      <c r="E63" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <v>19330051920312</v>
+      </c>
+      <c r="B64" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" t="s">
+        <v>115</v>
+      </c>
+      <c r="D64" t="s">
+        <v>185</v>
+      </c>
+      <c r="E64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>19330051920316</v>
+      </c>
+      <c r="B65" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65" t="s">
+        <v>186</v>
+      </c>
+      <c r="E65" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>19330051920323</v>
+      </c>
+      <c r="B66" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" t="s">
+        <v>51</v>
+      </c>
+      <c r="D66" t="s">
+        <v>187</v>
+      </c>
+      <c r="E66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>19330051920325</v>
+      </c>
+      <c r="B67" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" t="s">
+        <v>116</v>
+      </c>
+      <c r="D67" t="s">
+        <v>188</v>
+      </c>
+      <c r="E67" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68">
+        <v>19330051920321</v>
+      </c>
+      <c r="B68" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68" t="s">
+        <v>35</v>
+      </c>
+      <c r="D68" t="s">
+        <v>189</v>
+      </c>
+      <c r="E68" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <v>19330051920330</v>
+      </c>
+      <c r="B69" t="s">
+        <v>30</v>
+      </c>
+      <c r="C69" t="s">
+        <v>117</v>
+      </c>
+      <c r="D69" t="s">
+        <v>190</v>
+      </c>
+      <c r="E69" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <v>19330051920337</v>
+      </c>
+      <c r="B70" t="s">
+        <v>67</v>
+      </c>
+      <c r="C70" t="s">
+        <v>42</v>
+      </c>
+      <c r="D70" t="s">
+        <v>191</v>
+      </c>
+      <c r="E70" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>19330051920341</v>
+      </c>
+      <c r="B71" t="s">
+        <v>68</v>
+      </c>
+      <c r="C71" t="s">
+        <v>69</v>
+      </c>
+      <c r="D71" t="s">
+        <v>192</v>
+      </c>
+      <c r="E71" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72">
+        <v>19330051920344</v>
+      </c>
+      <c r="B72" t="s">
+        <v>56</v>
+      </c>
+      <c r="C72" t="s">
+        <v>62</v>
+      </c>
+      <c r="D72" t="s">
+        <v>193</v>
+      </c>
+      <c r="E72" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73">
+        <v>19330051920440</v>
+      </c>
+      <c r="B73" t="s">
+        <v>43</v>
+      </c>
+      <c r="C73" t="s">
+        <v>37</v>
+      </c>
+      <c r="D73" t="s">
+        <v>194</v>
+      </c>
+      <c r="E73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74">
+        <v>19330051920345</v>
+      </c>
+      <c r="B74" t="s">
+        <v>43</v>
+      </c>
+      <c r="C74" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74" t="s">
+        <v>195</v>
+      </c>
+      <c r="E74" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
+        <v>19330051920346</v>
+      </c>
+      <c r="B75" t="s">
+        <v>43</v>
+      </c>
+      <c r="C75" t="s">
+        <v>118</v>
+      </c>
+      <c r="D75" t="s">
+        <v>196</v>
+      </c>
+      <c r="E75" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76">
+        <v>19330051920350</v>
+      </c>
+      <c r="B76" t="s">
+        <v>60</v>
+      </c>
+      <c r="C76" t="s">
+        <v>119</v>
+      </c>
+      <c r="D76" t="s">
+        <v>197</v>
+      </c>
+      <c r="E76" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77">
+        <v>19330051920351</v>
+      </c>
+      <c r="B77" t="s">
+        <v>69</v>
+      </c>
+      <c r="C77" t="s">
+        <v>112</v>
+      </c>
+      <c r="D77" t="s">
+        <v>198</v>
+      </c>
+      <c r="E77" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78">
+        <v>19330051920248</v>
+      </c>
+      <c r="B78" t="s">
+        <v>70</v>
+      </c>
+      <c r="C78" t="s">
+        <v>23</v>
+      </c>
+      <c r="D78" t="s">
+        <v>199</v>
+      </c>
+      <c r="E78" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" t="s">
+        <v>14</v>
+      </c>
+      <c r="G78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79">
+        <v>19330051920249</v>
+      </c>
+      <c r="B79" t="s">
+        <v>71</v>
+      </c>
+      <c r="C79" t="s">
+        <v>120</v>
+      </c>
+      <c r="D79" t="s">
+        <v>200</v>
+      </c>
+      <c r="E79" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" t="s">
+        <v>14</v>
+      </c>
+      <c r="G79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80">
+        <v>19330051920250</v>
+      </c>
+      <c r="B80" t="s">
+        <v>72</v>
+      </c>
+      <c r="C80" t="s">
+        <v>121</v>
+      </c>
+      <c r="D80" t="s">
+        <v>201</v>
+      </c>
+      <c r="E80" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" t="s">
+        <v>14</v>
+      </c>
+      <c r="G80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81">
+        <v>19330051920254</v>
+      </c>
+      <c r="B81" t="s">
+        <v>37</v>
+      </c>
+      <c r="C81" t="s">
+        <v>22</v>
+      </c>
+      <c r="D81" t="s">
+        <v>202</v>
+      </c>
+      <c r="E81" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" t="s">
+        <v>14</v>
+      </c>
+      <c r="G81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82">
+        <v>19330051920255</v>
+      </c>
+      <c r="B82" t="s">
+        <v>37</v>
+      </c>
+      <c r="C82" t="s">
+        <v>122</v>
+      </c>
+      <c r="D82" t="s">
+        <v>203</v>
+      </c>
+      <c r="E82" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" t="s">
+        <v>14</v>
+      </c>
+      <c r="G82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83">
+        <v>19330051920263</v>
+      </c>
+      <c r="B83" t="s">
+        <v>25</v>
+      </c>
+      <c r="C83" t="s">
+        <v>46</v>
+      </c>
+      <c r="D83" t="s">
+        <v>204</v>
+      </c>
+      <c r="E83" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" t="s">
+        <v>14</v>
+      </c>
+      <c r="G83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84">
+        <v>19330051920402</v>
+      </c>
+      <c r="B84" t="s">
+        <v>73</v>
+      </c>
+      <c r="C84" t="s">
+        <v>123</v>
+      </c>
+      <c r="D84" t="s">
+        <v>205</v>
+      </c>
+      <c r="E84" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" t="s">
+        <v>14</v>
+      </c>
+      <c r="G84">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85">
+        <v>19330051920403</v>
+      </c>
+      <c r="B85" t="s">
+        <v>55</v>
+      </c>
+      <c r="C85" t="s">
+        <v>124</v>
+      </c>
+      <c r="D85" t="s">
+        <v>206</v>
+      </c>
+      <c r="E85" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" t="s">
+        <v>14</v>
+      </c>
+      <c r="G85">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86">
+        <v>19330051920405</v>
+      </c>
+      <c r="B86" t="s">
+        <v>42</v>
+      </c>
+      <c r="C86" t="s">
+        <v>89</v>
+      </c>
+      <c r="D86" t="s">
+        <v>207</v>
+      </c>
+      <c r="E86" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" t="s">
+        <v>14</v>
+      </c>
+      <c r="G86">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87">
+        <v>19330051920406</v>
+      </c>
+      <c r="B87" t="s">
+        <v>74</v>
+      </c>
+      <c r="C87" t="s">
+        <v>125</v>
+      </c>
+      <c r="D87" t="s">
+        <v>208</v>
+      </c>
+      <c r="E87" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" t="s">
+        <v>14</v>
+      </c>
+      <c r="G87">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Polanco Domínguez Rosa María - Estadisticos 20211.xlsx
+++ b/docentes/Polanco Domínguez Rosa María - Estadisticos 20211.xlsx
@@ -106,60 +106,60 @@
     <t>HERNANDEZ</t>
   </si>
   <si>
+    <t>ROSAS</t>
+  </si>
+  <si>
+    <t>COSCAHUA</t>
+  </si>
+  <si>
+    <t>GUTIERREZ</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>AJACTLE</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>SOLANO</t>
+  </si>
+  <si>
+    <t>SUAREZ</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>APALE</t>
+  </si>
+  <si>
+    <t>CARDENAS</t>
+  </si>
+  <si>
+    <t>GALVEZ</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
     <t>RAMIREZ</t>
   </si>
   <si>
-    <t>ROSAS</t>
-  </si>
-  <si>
-    <t>COSCAHUA</t>
-  </si>
-  <si>
-    <t>GUTIERREZ</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>AJACTLE</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>RIVERA</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>SOLANO</t>
-  </si>
-  <si>
-    <t>SUAREZ</t>
-  </si>
-  <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
-    <t>APALE</t>
-  </si>
-  <si>
-    <t>CARDENAS</t>
-  </si>
-  <si>
-    <t>GALVEZ</t>
-  </si>
-  <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
     <t>CORDOVA</t>
   </si>
   <si>
@@ -187,54 +187,54 @@
     <t>ANDRADE</t>
   </si>
   <si>
+    <t>CUAHUA</t>
+  </si>
+  <si>
+    <t>DOMINGUEZ</t>
+  </si>
+  <si>
+    <t>GALEOTE</t>
+  </si>
+  <si>
+    <t>TZOYONTLE</t>
+  </si>
+  <si>
+    <t>PAZ</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>OFICIAL</t>
+  </si>
+  <si>
+    <t>FERRAL</t>
+  </si>
+  <si>
+    <t>DE LA LUZ</t>
+  </si>
+  <si>
+    <t>ZEPAHUA</t>
+  </si>
+  <si>
+    <t>AMADOR</t>
+  </si>
+  <si>
+    <t>ALTAMIRANO</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>BAEZ</t>
+  </si>
+  <si>
+    <t>MENDEZ</t>
+  </si>
+  <si>
     <t>CORDOBA</t>
   </si>
   <si>
-    <t>CUAHUA</t>
-  </si>
-  <si>
-    <t>DOMINGUEZ</t>
-  </si>
-  <si>
-    <t>GALEOTE</t>
-  </si>
-  <si>
-    <t>TZOYONTLE</t>
-  </si>
-  <si>
-    <t>PAZ</t>
-  </si>
-  <si>
-    <t>DE LA CRUZ</t>
-  </si>
-  <si>
-    <t>OFICIAL</t>
-  </si>
-  <si>
-    <t>FERRAL</t>
-  </si>
-  <si>
-    <t>DE LA LUZ</t>
-  </si>
-  <si>
-    <t>ZEPAHUA</t>
-  </si>
-  <si>
-    <t>AMADOR</t>
-  </si>
-  <si>
-    <t>ALTAMIRANO</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>BAEZ</t>
-  </si>
-  <si>
-    <t>MENDEZ</t>
-  </si>
-  <si>
     <t>GUIZA</t>
   </si>
   <si>
@@ -271,73 +271,73 @@
     <t>PERLA</t>
   </si>
   <si>
+    <t>ERICA</t>
+  </si>
+  <si>
+    <t>JAVIER FERNANDO</t>
+  </si>
+  <si>
+    <t>ALEXIS</t>
+  </si>
+  <si>
+    <t>ALMA LIZETH</t>
+  </si>
+  <si>
+    <t>ISAAC ALESSANDRO</t>
+  </si>
+  <si>
+    <t>IVAN</t>
+  </si>
+  <si>
+    <t>ELISA</t>
+  </si>
+  <si>
+    <t>JHOVANA</t>
+  </si>
+  <si>
+    <t>AZAEL</t>
+  </si>
+  <si>
+    <t>ALLISSON NICOLE</t>
+  </si>
+  <si>
+    <t>KARLA</t>
+  </si>
+  <si>
+    <t>ROSA JATZIRI</t>
+  </si>
+  <si>
+    <t>VALERIA GUADALUPE</t>
+  </si>
+  <si>
+    <t>CECILIA ARLETH</t>
+  </si>
+  <si>
+    <t>ASHLEY ZURELY</t>
+  </si>
+  <si>
+    <t>ISRAEL</t>
+  </si>
+  <si>
+    <t>KEVIN HONAM</t>
+  </si>
+  <si>
+    <t>ADRIAN</t>
+  </si>
+  <si>
+    <t>IGNACIO</t>
+  </si>
+  <si>
+    <t>GWINETH</t>
+  </si>
+  <si>
+    <t>ABIGAIL</t>
+  </si>
+  <si>
+    <t>HILARIO</t>
+  </si>
+  <si>
     <t>FRANCISCO JAVIER</t>
-  </si>
-  <si>
-    <t>ERICA</t>
-  </si>
-  <si>
-    <t>JAVIER FERNANDO</t>
-  </si>
-  <si>
-    <t>ALEXIS</t>
-  </si>
-  <si>
-    <t>ALMA LIZETH</t>
-  </si>
-  <si>
-    <t>ISAAC ALESSANDRO</t>
-  </si>
-  <si>
-    <t>IVAN</t>
-  </si>
-  <si>
-    <t>ELISA</t>
-  </si>
-  <si>
-    <t>JHOVANA</t>
-  </si>
-  <si>
-    <t>AZAEL</t>
-  </si>
-  <si>
-    <t>ALLISSON NICOLE</t>
-  </si>
-  <si>
-    <t>KARLA</t>
-  </si>
-  <si>
-    <t>ROSA JATZIRI</t>
-  </si>
-  <si>
-    <t>VALERIA GUADALUPE</t>
-  </si>
-  <si>
-    <t>CECILIA ARLETH</t>
-  </si>
-  <si>
-    <t>ASHLEY ZURELY</t>
-  </si>
-  <si>
-    <t>ISRAEL</t>
-  </si>
-  <si>
-    <t>KEVIN HONAM</t>
-  </si>
-  <si>
-    <t>ADRIAN</t>
-  </si>
-  <si>
-    <t>IGNACIO</t>
-  </si>
-  <si>
-    <t>GWINETH</t>
-  </si>
-  <si>
-    <t>ABIGAIL</t>
-  </si>
-  <si>
-    <t>HILARIO</t>
   </si>
   <si>
     <t>ANGELA ALESSANDRA</t>
@@ -1430,7 +1430,7 @@
         <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
         <v>83</v>
@@ -1447,10 +1447,10 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>18330051920108</v>
+        <v>19330051920256</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
         <v>56</v>
@@ -1459,18 +1459,18 @@
         <v>84</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>19330051920256</v>
+        <v>19330051920258</v>
       </c>
       <c r="B12" t="s">
         <v>28</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>19330051920258</v>
+        <v>19330051920257</v>
       </c>
       <c r="B13" t="s">
         <v>28</v>
@@ -1516,16 +1516,16 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>19330051920257</v>
+        <v>19330051920407</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -1539,30 +1539,30 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>19330051920407</v>
+        <v>19330051920046</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G15">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>19330051920046</v>
+        <v>18330051920022</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
@@ -1585,7 +1585,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>18330051920022</v>
+        <v>19330051920074</v>
       </c>
       <c r="B17" t="s">
         <v>32</v>
@@ -1608,13 +1608,13 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>19330051920074</v>
+        <v>19330051920269</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
         <v>90</v>
@@ -1623,21 +1623,21 @@
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G18">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>19330051920269</v>
+        <v>18330051920321</v>
       </c>
       <c r="B19" t="s">
         <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
         <v>91</v>
@@ -1654,13 +1654,13 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>18330051920321</v>
+        <v>19330051920449</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
         <v>92</v>
@@ -1677,13 +1677,13 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>19330051920449</v>
+        <v>19330051920343</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>93</v>
@@ -1700,13 +1700,13 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>19330051920343</v>
+        <v>19330051920292</v>
       </c>
       <c r="B22" t="s">
         <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
         <v>94</v>
@@ -1723,13 +1723,13 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>19330051920292</v>
+        <v>19330051920293</v>
       </c>
       <c r="B23" t="s">
         <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="D23" t="s">
         <v>95</v>
@@ -1746,13 +1746,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>19330051920293</v>
+        <v>19330051920298</v>
       </c>
       <c r="B24" t="s">
         <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D24" t="s">
         <v>96</v>
@@ -1769,13 +1769,13 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>19330051920298</v>
+        <v>19330051920299</v>
       </c>
       <c r="B25" t="s">
         <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D25" t="s">
         <v>97</v>
@@ -1792,13 +1792,13 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>19330051920299</v>
+        <v>19330051920443</v>
       </c>
       <c r="B26" t="s">
         <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D26" t="s">
         <v>98</v>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>19330051920443</v>
+        <v>19330051920307</v>
       </c>
       <c r="B27" t="s">
         <v>41</v>
@@ -1830,7 +1830,7 @@
         <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>6</v>
@@ -1838,7 +1838,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>19330051920307</v>
+        <v>19330051920312</v>
       </c>
       <c r="B28" t="s">
         <v>42</v>
@@ -1861,7 +1861,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>19330051920312</v>
+        <v>19330051920323</v>
       </c>
       <c r="B29" t="s">
         <v>43</v>
@@ -1884,13 +1884,13 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>19330051920323</v>
+        <v>19330051920321</v>
       </c>
       <c r="B30" t="s">
         <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D30" t="s">
         <v>102</v>
@@ -1907,13 +1907,13 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>19330051920321</v>
+        <v>19330051920345</v>
       </c>
       <c r="B31" t="s">
         <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D31" t="s">
         <v>103</v>
@@ -1930,10 +1930,10 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>19330051920345</v>
+        <v>19330051920350</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
         <v>69</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>19330051920350</v>
+        <v>18330051920097</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
         <v>70</v>
@@ -1965,10 +1965,10 @@
         <v>105</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33">
         <v>6</v>
@@ -1976,10 +1976,10 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>18330051920097</v>
+        <v>18330051920108</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C34" t="s">
         <v>71</v>
@@ -1994,7 +1994,7 @@
         <v>13</v>
       </c>
       <c r="G34">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2048,7 +2048,7 @@
         <v>19330051920403</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
         <v>74</v>
